--- a/RESULTS/Double/Structure 2 Water.xlsx
+++ b/RESULTS/Double/Structure 2 Water.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MCGILL\WS16558\Py\RESULTS\Double\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MCGILL\WS16558\Py\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="74">
   <si>
     <t>Symbol</t>
   </si>
@@ -180,21 +180,6 @@
     <t>Atom22 Molecular Index</t>
   </si>
   <si>
-    <t>010125</t>
-  </si>
-  <si>
-    <t>010055</t>
-  </si>
-  <si>
-    <t>010155</t>
-  </si>
-  <si>
-    <t>011125</t>
-  </si>
-  <si>
-    <t>011155</t>
-  </si>
-  <si>
     <t>0101010126</t>
   </si>
   <si>
@@ -260,12 +245,15 @@
   <si>
     <t>0101111157</t>
   </si>
+  <si>
+    <t>22 TYPES</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -288,13 +276,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -324,7 +327,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -333,6 +336,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2047,10 +2053,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC121"/>
+  <dimension ref="A1:AC106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2067,6 +2073,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>73</v>
+      </c>
       <c r="B1" s="2" t="s">
         <v>23</v>
       </c>
@@ -2157,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>51</v>
@@ -2166,7 +2175,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2" s="1">
         <v>-1</v>
@@ -2204,22 +2213,58 @@
       <c r="Q2" s="1">
         <v>0</v>
       </c>
+      <c r="R2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T2" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="U2" s="1">
+        <v>1</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W2" s="1">
+        <v>0</v>
+      </c>
+      <c r="X2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D3" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1">
         <v>-1</v>
@@ -2249,13 +2294,49 @@
         <v>5</v>
       </c>
       <c r="O3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P3" s="1">
         <v>1</v>
       </c>
       <c r="Q3" s="1">
         <v>0</v>
+      </c>
+      <c r="R3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="T3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="U3" s="1">
+        <v>100</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W3" s="1">
+        <v>0</v>
+      </c>
+      <c r="X3" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA3" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
@@ -2263,28 +2344,28 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D4" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E4" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F4" s="1">
         <v>-1</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H4" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" s="1">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>4</v>
@@ -2299,15 +2380,51 @@
         <v>0</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O4" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P4" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4" s="1">
+        <v>0</v>
+      </c>
+      <c r="R4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="T4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="U4" s="1">
+        <v>101</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W4" s="1">
+        <v>0</v>
+      </c>
+      <c r="X4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>4</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC4" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2316,51 +2433,87 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D5" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E5" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F5" s="1">
         <v>-1</v>
       </c>
       <c r="G5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O5" s="1">
+        <v>1</v>
+      </c>
+      <c r="P5" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>0</v>
+      </c>
+      <c r="R5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" s="1">
+      <c r="T5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="U5" s="1">
         <v>101</v>
       </c>
-      <c r="J5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K5" s="1">
-        <v>0</v>
-      </c>
-      <c r="L5" s="1">
-        <v>0</v>
-      </c>
-      <c r="M5" s="1">
-        <v>0</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O5" s="1">
-        <v>4</v>
-      </c>
-      <c r="P5" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="1">
+      <c r="V5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W5" s="1">
+        <v>0</v>
+      </c>
+      <c r="X5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>5</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC5" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2369,28 +2522,28 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D6" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E6" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F6" s="1">
         <v>-1</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H6" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" s="1">
-        <v>101</v>
+        <v>1</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>4</v>
@@ -2408,13 +2561,49 @@
         <v>5</v>
       </c>
       <c r="O6" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P6" s="1">
         <v>1</v>
       </c>
       <c r="Q6" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="R6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="T6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="U6" s="1">
+        <v>11</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W6" s="1">
+        <v>1</v>
+      </c>
+      <c r="X6" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
@@ -2422,37 +2611,37 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D7" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E7" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F7" s="1">
         <v>-1</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H7" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I7" s="1">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -2461,12 +2650,48 @@
         <v>5</v>
       </c>
       <c r="O7" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P7" s="1">
         <v>1</v>
       </c>
       <c r="Q7" s="1">
+        <v>0</v>
+      </c>
+      <c r="R7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="T7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="U7" s="1">
+        <v>101</v>
+      </c>
+      <c r="V7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W7" s="1">
+        <v>3</v>
+      </c>
+      <c r="X7" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC7" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2475,40 +2700,40 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D8" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E8" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F8" s="1">
         <v>-1</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H8" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" s="1">
-        <v>101</v>
+        <v>1</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>4</v>
       </c>
       <c r="K8" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L8" s="1">
         <v>0</v>
       </c>
       <c r="M8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N8" s="3" t="s">
         <v>5</v>
@@ -2521,6 +2746,42 @@
       </c>
       <c r="Q8" s="1">
         <v>0</v>
+      </c>
+      <c r="R8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="T8" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="U8" s="1">
+        <v>111</v>
+      </c>
+      <c r="V8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W8" s="1">
+        <v>1</v>
+      </c>
+      <c r="X8" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA8" s="1">
+        <v>4</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC8" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
@@ -2528,51 +2789,87 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D9" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E9" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F9" s="1">
         <v>-1</v>
       </c>
       <c r="G9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0</v>
+      </c>
+      <c r="M9" s="1">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O9" s="1">
+        <v>1</v>
+      </c>
+      <c r="P9" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>0</v>
+      </c>
+      <c r="R9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I9" s="1">
+      <c r="T9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="U9" s="1">
         <v>111</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K9" s="1">
-        <v>1</v>
-      </c>
-      <c r="L9" s="1">
-        <v>1</v>
-      </c>
-      <c r="M9" s="1">
-        <v>0</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O9" s="1">
-        <v>4</v>
-      </c>
-      <c r="P9" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="1">
+      <c r="V9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W9" s="1">
+        <v>1</v>
+      </c>
+      <c r="X9" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA9" s="1">
+        <v>5</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC9" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2581,37 +2878,37 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D10" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E10" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F10" s="1">
         <v>-1</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H10" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" s="1">
-        <v>111</v>
+        <v>1</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -2620,13 +2917,49 @@
         <v>5</v>
       </c>
       <c r="O10" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P10" s="1">
         <v>1</v>
       </c>
       <c r="Q10" s="1">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="R10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="T10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="U10" s="1">
+        <v>101</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W10" s="1">
+        <v>3</v>
+      </c>
+      <c r="X10" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA10" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB10" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC10" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
@@ -2634,52 +2967,88 @@
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D11" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E11" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F11" s="1">
         <v>-1</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H11" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" s="1">
-        <v>101</v>
+        <v>1</v>
       </c>
       <c r="J11" s="3" t="s">
         <v>4</v>
       </c>
       <c r="K11" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L11" s="1">
         <v>0</v>
       </c>
       <c r="M11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11" s="3" t="s">
         <v>5</v>
       </c>
       <c r="O11" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P11" s="1">
         <v>1</v>
       </c>
       <c r="Q11" s="1">
         <v>0</v>
+      </c>
+      <c r="R11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="T11" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="U11" s="1">
+        <v>111</v>
+      </c>
+      <c r="V11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W11" s="1">
+        <v>2</v>
+      </c>
+      <c r="X11" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA11" s="1">
+        <v>4</v>
+      </c>
+      <c r="AB11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC11" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
@@ -2687,51 +3056,87 @@
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D12" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E12" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F12" s="1">
         <v>-1</v>
       </c>
       <c r="G12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <v>1</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0</v>
+      </c>
+      <c r="L12" s="1">
+        <v>0</v>
+      </c>
+      <c r="M12" s="1">
+        <v>0</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O12" s="1">
+        <v>1</v>
+      </c>
+      <c r="P12" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>0</v>
+      </c>
+      <c r="R12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H12" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" s="1">
+      <c r="T12" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="U12" s="1">
         <v>111</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K12" s="1">
-        <v>2</v>
-      </c>
-      <c r="L12" s="1">
-        <v>1</v>
-      </c>
-      <c r="M12" s="1">
-        <v>0</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O12" s="1">
-        <v>4</v>
-      </c>
-      <c r="P12" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="1">
+      <c r="V12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W12" s="1">
+        <v>2</v>
+      </c>
+      <c r="X12" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA12" s="1">
+        <v>5</v>
+      </c>
+      <c r="AB12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC12" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2740,37 +3145,37 @@
         <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D13" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E13" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F13" s="1">
         <v>-1</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H13" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" s="1">
-        <v>111</v>
+        <v>1</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K13" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -2779,12 +3184,48 @@
         <v>5</v>
       </c>
       <c r="O13" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P13" s="1">
         <v>1</v>
       </c>
       <c r="Q13" s="1">
+        <v>0</v>
+      </c>
+      <c r="R13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T13" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="U13" s="1">
+        <v>1</v>
+      </c>
+      <c r="V13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W13" s="1">
+        <v>3</v>
+      </c>
+      <c r="X13" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA13" s="1">
+        <v>4</v>
+      </c>
+      <c r="AB13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC13" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2793,16 +3234,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="D14" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E14" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F14" s="1">
         <v>-1</v>
@@ -2820,24 +3261,60 @@
         <v>4</v>
       </c>
       <c r="K14" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L14" s="1">
         <v>0</v>
       </c>
       <c r="M14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>5</v>
       </c>
       <c r="O14" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P14" s="1">
         <v>1</v>
       </c>
       <c r="Q14" s="1">
+        <v>0</v>
+      </c>
+      <c r="R14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="U14" s="1">
+        <v>1</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W14" s="1">
+        <v>3</v>
+      </c>
+      <c r="X14" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA14" s="1">
+        <v>5</v>
+      </c>
+      <c r="AB14" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC14" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2846,16 +3323,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="D15" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E15" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F15" s="1">
         <v>-1</v>
@@ -2873,24 +3350,60 @@
         <v>4</v>
       </c>
       <c r="K15" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L15" s="1">
         <v>0</v>
       </c>
       <c r="M15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>5</v>
       </c>
       <c r="O15" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P15" s="1">
         <v>1</v>
       </c>
       <c r="Q15" s="1">
+        <v>0</v>
+      </c>
+      <c r="R15" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="T15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="U15" s="1">
+        <v>11</v>
+      </c>
+      <c r="V15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W15" s="1">
+        <v>4</v>
+      </c>
+      <c r="X15" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y15" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA15" s="1">
+        <v>5</v>
+      </c>
+      <c r="AB15" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC15" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2899,51 +3412,87 @@
         <v>14</v>
       </c>
       <c r="B16" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D16" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E16" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F16" s="1">
         <v>-1</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H16" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I16" s="1">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K16" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N16" s="3" t="s">
         <v>5</v>
       </c>
       <c r="O16" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P16" s="1">
         <v>1</v>
       </c>
       <c r="Q16" s="1">
+        <v>0</v>
+      </c>
+      <c r="R16" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="T16" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="U16" s="1">
+        <v>100</v>
+      </c>
+      <c r="V16" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W16" s="1">
+        <v>0</v>
+      </c>
+      <c r="X16" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA16" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="1">
         <v>1</v>
       </c>
     </row>
@@ -2955,10 +3504,10 @@
         <v>2</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D17" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E17" s="1">
         <v>6</v>
@@ -2991,7 +3540,7 @@
         <v>5</v>
       </c>
       <c r="O17" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P17" s="1">
         <v>1</v>
@@ -3003,13 +3552,13 @@
         <v>-1</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="T17" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U17" s="1">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="V17" s="3" t="s">
         <v>4</v>
@@ -3027,13 +3576,13 @@
         <v>5</v>
       </c>
       <c r="AA17" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AB17" s="1">
         <v>1</v>
       </c>
       <c r="AC17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.25">
@@ -3044,7 +3593,7 @@
         <v>2</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D18" s="1">
         <v>3</v>
@@ -3080,7 +3629,7 @@
         <v>5</v>
       </c>
       <c r="O18" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P18" s="1">
         <v>1</v>
@@ -3092,13 +3641,13 @@
         <v>-1</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="T18" s="1" t="b">
         <v>1</v>
       </c>
       <c r="U18" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="V18" s="3" t="s">
         <v>4</v>
@@ -3113,13 +3662,13 @@
         <v>0</v>
       </c>
       <c r="Z18" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AA18" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AB18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC18" s="1">
         <v>1</v>
@@ -3133,10 +3682,10 @@
         <v>2</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D19" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E19" s="1">
         <v>6</v>
@@ -3169,7 +3718,7 @@
         <v>5</v>
       </c>
       <c r="O19" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P19" s="1">
         <v>1</v>
@@ -3181,22 +3730,22 @@
         <v>-1</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="T19" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>101</v>
+        <v>11</v>
       </c>
       <c r="V19" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y19" s="1">
         <v>0</v>
@@ -3205,13 +3754,13 @@
         <v>5</v>
       </c>
       <c r="AA19" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AB19" s="1">
         <v>1</v>
       </c>
       <c r="AC19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.25">
@@ -3222,13 +3771,13 @@
         <v>2</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D20" s="1">
         <v>3</v>
       </c>
       <c r="E20" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F20" s="1">
         <v>-1</v>
@@ -3258,7 +3807,7 @@
         <v>5</v>
       </c>
       <c r="O20" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P20" s="1">
         <v>1</v>
@@ -3282,25 +3831,25 @@
         <v>4</v>
       </c>
       <c r="W20" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X20" s="1">
         <v>0</v>
       </c>
       <c r="Y20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z20" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AA20" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AB20" s="1">
         <v>1</v>
       </c>
       <c r="AC20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.25">
@@ -3311,13 +3860,13 @@
         <v>2</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D21" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E21" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F21" s="1">
         <v>-1</v>
@@ -3347,7 +3896,7 @@
         <v>5</v>
       </c>
       <c r="O21" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P21" s="1">
         <v>1</v>
@@ -3359,13 +3908,13 @@
         <v>-1</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T21" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U21" s="1">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="V21" s="3" t="s">
         <v>5</v>
@@ -3383,13 +3932,13 @@
         <v>5</v>
       </c>
       <c r="AA21" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AB21" s="1">
         <v>1</v>
       </c>
       <c r="AC21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.25">
@@ -3400,13 +3949,13 @@
         <v>2</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D22" s="1">
         <v>3</v>
       </c>
       <c r="E22" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F22" s="1">
         <v>-1</v>
@@ -3436,7 +3985,7 @@
         <v>5</v>
       </c>
       <c r="O22" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P22" s="1">
         <v>1</v>
@@ -3448,37 +3997,37 @@
         <v>-1</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="T22" s="1" t="b">
         <v>1</v>
       </c>
       <c r="U22" s="1">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="V22" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W22" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AA22" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AB22" s="1">
         <v>1</v>
       </c>
       <c r="AC22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.25">
@@ -3489,7 +4038,7 @@
         <v>2</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D23" s="1">
         <v>3</v>
@@ -3525,7 +4074,7 @@
         <v>5</v>
       </c>
       <c r="O23" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P23" s="1">
         <v>1</v>
@@ -3537,37 +4086,37 @@
         <v>-1</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="T23" s="1" t="b">
         <v>1</v>
       </c>
       <c r="U23" s="1">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="V23" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W23" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z23" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AA23" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AB23" s="1">
         <v>1</v>
       </c>
       <c r="AC23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.25">
@@ -3578,7 +4127,7 @@
         <v>2</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D24" s="1">
         <v>3</v>
@@ -3614,7 +4163,7 @@
         <v>5</v>
       </c>
       <c r="O24" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P24" s="1">
         <v>1</v>
@@ -3638,7 +4187,7 @@
         <v>5</v>
       </c>
       <c r="W24" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X24" s="1">
         <v>1</v>
@@ -3650,7 +4199,7 @@
         <v>5</v>
       </c>
       <c r="AA24" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AB24" s="1">
         <v>1</v>
@@ -3667,13 +4216,13 @@
         <v>2</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D25" s="1">
         <v>3</v>
       </c>
       <c r="E25" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F25" s="1">
         <v>-1</v>
@@ -3703,7 +4252,7 @@
         <v>5</v>
       </c>
       <c r="O25" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P25" s="1">
         <v>1</v>
@@ -3715,37 +4264,37 @@
         <v>-1</v>
       </c>
       <c r="S25" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="T25" s="1" t="b">
         <v>1</v>
       </c>
       <c r="U25" s="1">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="V25" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W25" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AA25" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AB25" s="1">
         <v>1</v>
       </c>
       <c r="AC25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.25">
@@ -3756,10 +4305,10 @@
         <v>2</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D26" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E26" s="1">
         <v>7</v>
@@ -3792,7 +4341,7 @@
         <v>5</v>
       </c>
       <c r="O26" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P26" s="1">
         <v>1</v>
@@ -3804,25 +4353,25 @@
         <v>-1</v>
       </c>
       <c r="S26" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="T26" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>111</v>
+        <v>1</v>
       </c>
       <c r="V26" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W26" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y26" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z26" s="3" t="s">
         <v>5</v>
@@ -3845,10 +4394,10 @@
         <v>2</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D27" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E27" s="1">
         <v>7</v>
@@ -3881,7 +4430,7 @@
         <v>5</v>
       </c>
       <c r="O27" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P27" s="1">
         <v>1</v>
@@ -3893,25 +4442,25 @@
         <v>-1</v>
       </c>
       <c r="S27" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="T27" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U27" s="1">
-        <v>111</v>
+        <v>1</v>
       </c>
       <c r="V27" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W27" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y27" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z27" s="3" t="s">
         <v>5</v>
@@ -3934,7 +4483,7 @@
         <v>2</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D28" s="1">
         <v>1</v>
@@ -3970,7 +4519,7 @@
         <v>5</v>
       </c>
       <c r="O28" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P28" s="1">
         <v>1</v>
@@ -3982,22 +4531,22 @@
         <v>-1</v>
       </c>
       <c r="S28" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="T28" s="1" t="b">
         <v>0</v>
       </c>
       <c r="U28" s="1">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="V28" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W28" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X28" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y28" s="1">
         <v>1</v>
@@ -4006,7 +4555,7 @@
         <v>5</v>
       </c>
       <c r="AA28" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AB28" s="1">
         <v>1</v>
@@ -4023,25 +4572,25 @@
         <v>2</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D29" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E29" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F29" s="1">
         <v>-1</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H29" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" s="1">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>4</v>
@@ -4056,46 +4605,46 @@
         <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O29" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R29" s="1">
         <v>-1</v>
       </c>
       <c r="S29" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="T29" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U29" s="1">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>4</v>
       </c>
       <c r="W29" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X29" s="1">
         <v>0</v>
       </c>
       <c r="Y29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z29" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AA29" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AB29" s="1">
         <v>1</v>
@@ -4112,25 +4661,25 @@
         <v>2</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D30" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E30" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F30" s="1">
         <v>-1</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H30" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" s="1">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="J30" s="3" t="s">
         <v>4</v>
@@ -4145,40 +4694,40 @@
         <v>0</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O30" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R30" s="1">
         <v>-1</v>
       </c>
       <c r="S30" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T30" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U30" s="1">
-        <v>11</v>
+        <v>101</v>
       </c>
       <c r="V30" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W30" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="X30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z30" s="3" t="s">
         <v>5</v>
@@ -4201,34 +4750,34 @@
         <v>2</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D31" s="1">
         <v>3</v>
       </c>
       <c r="E31" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F31" s="1">
         <v>-1</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H31" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I31" s="1">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M31" s="1">
         <v>0</v>
@@ -4290,10 +4839,10 @@
         <v>2</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D32" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E32" s="1">
         <v>6</v>
@@ -4302,13 +4851,13 @@
         <v>-1</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H32" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" s="1">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>4</v>
@@ -4323,16 +4872,16 @@
         <v>0</v>
       </c>
       <c r="N32" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O32" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R32" s="1">
         <v>-1</v>
@@ -4350,25 +4899,25 @@
         <v>4</v>
       </c>
       <c r="W32" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X32" s="1">
         <v>0</v>
       </c>
       <c r="Y32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z32" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AA32" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AB32" s="1">
         <v>1</v>
       </c>
       <c r="AC32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:29" x14ac:dyDescent="0.25">
@@ -4379,25 +4928,25 @@
         <v>2</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D33" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E33" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F33" s="1">
         <v>-1</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H33" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" s="1">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>4</v>
@@ -4412,37 +4961,37 @@
         <v>0</v>
       </c>
       <c r="N33" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O33" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R33" s="1">
         <v>-1</v>
       </c>
       <c r="S33" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="T33" s="1" t="b">
         <v>1</v>
       </c>
       <c r="U33" s="1">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="V33" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y33" s="1">
         <v>0</v>
@@ -4451,7 +5000,7 @@
         <v>5</v>
       </c>
       <c r="AA33" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AB33" s="1">
         <v>1</v>
@@ -4468,25 +5017,25 @@
         <v>2</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D34" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E34" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F34" s="1">
         <v>-1</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H34" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" s="1">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="J34" s="3" t="s">
         <v>4</v>
@@ -4501,28 +5050,28 @@
         <v>0</v>
       </c>
       <c r="N34" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O34" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R34" s="1">
         <v>-1</v>
       </c>
       <c r="S34" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T34" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U34" s="1">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="V34" s="3" t="s">
         <v>5</v>
@@ -4540,13 +5089,13 @@
         <v>5</v>
       </c>
       <c r="AA34" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AB34" s="1">
         <v>1</v>
       </c>
       <c r="AC34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.25">
@@ -4557,25 +5106,25 @@
         <v>2</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D35" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E35" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F35" s="1">
         <v>-1</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H35" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" s="1">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>4</v>
@@ -4590,16 +5139,16 @@
         <v>0</v>
       </c>
       <c r="N35" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O35" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R35" s="1">
         <v>-1</v>
@@ -4629,7 +5178,7 @@
         <v>5</v>
       </c>
       <c r="AA35" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB35" s="1">
         <v>1</v>
@@ -4649,7 +5198,7 @@
         <v>62</v>
       </c>
       <c r="D36" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E36" s="1">
         <v>7</v>
@@ -4658,13 +5207,13 @@
         <v>-1</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H36" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" s="1">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="J36" s="3" t="s">
         <v>4</v>
@@ -4679,16 +5228,16 @@
         <v>0</v>
       </c>
       <c r="N36" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O36" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P36" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R36" s="1">
         <v>-1</v>
@@ -4706,7 +5255,7 @@
         <v>5</v>
       </c>
       <c r="W36" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X36" s="1">
         <v>1</v>
@@ -4738,7 +5287,7 @@
         <v>62</v>
       </c>
       <c r="D37" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E37" s="1">
         <v>7</v>
@@ -4747,13 +5296,13 @@
         <v>-1</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H37" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" s="1">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="J37" s="3" t="s">
         <v>4</v>
@@ -4768,16 +5317,16 @@
         <v>0</v>
       </c>
       <c r="N37" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O37" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R37" s="1">
         <v>-1</v>
@@ -4795,7 +5344,7 @@
         <v>5</v>
       </c>
       <c r="W37" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X37" s="1">
         <v>1</v>
@@ -4824,7 +5373,7 @@
         <v>2</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D38" s="1">
         <v>3</v>
@@ -4848,61 +5397,61 @@
         <v>4</v>
       </c>
       <c r="K38" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L38" s="1">
         <v>0</v>
       </c>
       <c r="M38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N38" s="3" t="s">
         <v>5</v>
       </c>
       <c r="O38" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P38" s="1">
         <v>1</v>
       </c>
       <c r="Q38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R38" s="1">
         <v>-1</v>
       </c>
       <c r="S38" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="T38" s="1" t="b">
         <v>1</v>
       </c>
       <c r="U38" s="1">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="V38" s="3" t="s">
         <v>4</v>
       </c>
       <c r="W38" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X38" s="1">
         <v>0</v>
       </c>
       <c r="Y38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z38" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AA38" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB38" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.25">
@@ -4913,7 +5462,7 @@
         <v>2</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D39" s="1">
         <v>3</v>
@@ -4937,58 +5486,58 @@
         <v>4</v>
       </c>
       <c r="K39" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L39" s="1">
         <v>0</v>
       </c>
       <c r="M39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N39" s="3" t="s">
         <v>5</v>
       </c>
       <c r="O39" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P39" s="1">
         <v>1</v>
       </c>
       <c r="Q39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R39" s="1">
         <v>-1</v>
       </c>
       <c r="S39" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="T39" s="1" t="b">
         <v>1</v>
       </c>
       <c r="U39" s="1">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="V39" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W39" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y39" s="1">
         <v>0</v>
       </c>
       <c r="Z39" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AA39" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AB39" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC39" s="1">
         <v>1</v>
@@ -5002,82 +5551,82 @@
         <v>2</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D40" s="1">
         <v>3</v>
       </c>
       <c r="E40" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F40" s="1">
         <v>-1</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H40" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I40" s="1">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K40" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N40" s="3" t="s">
         <v>5</v>
       </c>
       <c r="O40" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P40" s="1">
         <v>1</v>
       </c>
       <c r="Q40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R40" s="1">
         <v>-1</v>
       </c>
       <c r="S40" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="T40" s="1" t="b">
         <v>1</v>
       </c>
       <c r="U40" s="1">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="V40" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W40" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y40" s="1">
         <v>0</v>
       </c>
       <c r="Z40" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AA40" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AB40" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC40" s="1">
         <v>1</v>
@@ -5094,22 +5643,22 @@
         <v>63</v>
       </c>
       <c r="D41" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E41" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F41" s="1">
         <v>-1</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H41" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" s="1">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>4</v>
@@ -5127,43 +5676,43 @@
         <v>5</v>
       </c>
       <c r="O41" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P41" s="1">
         <v>1</v>
       </c>
       <c r="Q41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R41" s="1">
         <v>-1</v>
       </c>
       <c r="S41" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="T41" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U41" s="1">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="V41" s="3" t="s">
         <v>4</v>
       </c>
       <c r="W41" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X41" s="1">
         <v>0</v>
       </c>
       <c r="Y41" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z41" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AA41" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AB41" s="1">
         <v>1</v>
@@ -5180,10 +5729,10 @@
         <v>2</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D42" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E42" s="1">
         <v>7</v>
@@ -5192,22 +5741,22 @@
         <v>-1</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H42" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I42" s="1">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L42" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M42" s="1">
         <v>0</v>
@@ -5228,31 +5777,31 @@
         <v>-1</v>
       </c>
       <c r="S42" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="T42" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U42" s="1">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="V42" s="3" t="s">
         <v>4</v>
       </c>
       <c r="W42" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X42" s="1">
         <v>0</v>
       </c>
       <c r="Y42" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z42" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AA42" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AB42" s="1">
         <v>1</v>
@@ -5269,10 +5818,10 @@
         <v>2</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D43" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E43" s="1">
         <v>7</v>
@@ -5281,13 +5830,13 @@
         <v>-1</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H43" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" s="1">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>4</v>
@@ -5305,34 +5854,34 @@
         <v>5</v>
       </c>
       <c r="O43" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P43" s="1">
         <v>1</v>
       </c>
       <c r="Q43" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R43" s="1">
         <v>-1</v>
       </c>
       <c r="S43" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="T43" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U43" s="1">
-        <v>11</v>
+        <v>101</v>
       </c>
       <c r="V43" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W43" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y43" s="1">
         <v>1</v>
@@ -5341,13 +5890,13 @@
         <v>5</v>
       </c>
       <c r="AA43" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AB43" s="1">
         <v>1</v>
       </c>
       <c r="AC43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:29" x14ac:dyDescent="0.25">
@@ -5358,7 +5907,7 @@
         <v>2</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D44" s="1">
         <v>5</v>
@@ -5370,13 +5919,13 @@
         <v>-1</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H44" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I44" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>4</v>
@@ -5391,13 +5940,13 @@
         <v>0</v>
       </c>
       <c r="N44" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O44" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q44" s="1">
         <v>1</v>
@@ -5406,22 +5955,22 @@
         <v>-1</v>
       </c>
       <c r="S44" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="T44" s="1" t="b">
         <v>1</v>
       </c>
       <c r="U44" s="1">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="V44" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X44" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y44" s="1">
         <v>0</v>
@@ -5447,25 +5996,25 @@
         <v>2</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D45" s="1">
         <v>5</v>
       </c>
       <c r="E45" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F45" s="1">
         <v>-1</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H45" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I45" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>4</v>
@@ -5480,13 +6029,13 @@
         <v>0</v>
       </c>
       <c r="N45" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O45" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q45" s="1">
         <v>1</v>
@@ -5495,22 +6044,22 @@
         <v>-1</v>
       </c>
       <c r="S45" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="T45" s="1" t="b">
         <v>1</v>
       </c>
       <c r="U45" s="1">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="V45" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X45" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y45" s="1">
         <v>0</v>
@@ -5536,10 +6085,10 @@
         <v>2</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D46" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E46" s="1">
         <v>7</v>
@@ -5548,22 +6097,22 @@
         <v>-1</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H46" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" s="1">
-        <v>11</v>
+        <v>101</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M46" s="1">
         <v>0</v>
@@ -5572,49 +6121,49 @@
         <v>5</v>
       </c>
       <c r="O46" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P46" s="1">
         <v>1</v>
       </c>
       <c r="Q46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R46" s="1">
         <v>-1</v>
       </c>
       <c r="S46" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="T46" s="1" t="b">
         <v>1</v>
       </c>
       <c r="U46" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="V46" s="3" t="s">
         <v>4</v>
       </c>
       <c r="W46" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X46" s="1">
         <v>0</v>
       </c>
       <c r="Y46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z46" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AA46" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:29" x14ac:dyDescent="0.25">
@@ -5625,7 +6174,7 @@
         <v>2</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D47" s="1">
         <v>5</v>
@@ -5637,13 +6186,13 @@
         <v>-1</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H47" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I47" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>4</v>
@@ -5658,13 +6207,13 @@
         <v>0</v>
       </c>
       <c r="N47" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O47" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P47" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q47" s="1">
         <v>1</v>
@@ -5673,37 +6222,37 @@
         <v>-1</v>
       </c>
       <c r="S47" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="T47" s="1" t="b">
         <v>1</v>
       </c>
       <c r="U47" s="1">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="V47" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W47" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X47" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y47" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z47" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AA47" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AB47" s="1">
         <v>1</v>
       </c>
       <c r="AC47" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:29" x14ac:dyDescent="0.25">
@@ -5726,13 +6275,13 @@
         <v>-1</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H48" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I48" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>4</v>
@@ -5747,13 +6296,13 @@
         <v>0</v>
       </c>
       <c r="N48" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O48" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q48" s="1">
         <v>1</v>
@@ -5774,7 +6323,7 @@
         <v>5</v>
       </c>
       <c r="W48" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X48" s="1">
         <v>1</v>
@@ -5786,7 +6335,7 @@
         <v>5</v>
       </c>
       <c r="AA48" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AB48" s="1">
         <v>1</v>
@@ -5803,46 +6352,46 @@
         <v>2</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="D49" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E49" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F49" s="1">
         <v>-1</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H49" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" s="1">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>4</v>
       </c>
       <c r="K49" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L49" s="1">
         <v>0</v>
       </c>
       <c r="M49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N49" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O49" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q49" s="1">
         <v>1</v>
@@ -5851,22 +6400,22 @@
         <v>-1</v>
       </c>
       <c r="S49" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="T49" s="1" t="b">
         <v>1</v>
       </c>
       <c r="U49" s="1">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="V49" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y49" s="1">
         <v>0</v>
@@ -5875,7 +6424,7 @@
         <v>5</v>
       </c>
       <c r="AA49" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AB49" s="1">
         <v>1</v>
@@ -5892,46 +6441,46 @@
         <v>2</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="D50" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E50" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F50" s="1">
         <v>-1</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H50" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" s="1">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="J50" s="3" t="s">
         <v>4</v>
       </c>
       <c r="K50" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L50" s="1">
         <v>0</v>
       </c>
       <c r="M50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N50" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O50" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q50" s="1">
         <v>1</v>
@@ -5952,25 +6501,25 @@
         <v>4</v>
       </c>
       <c r="W50" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X50" s="1">
         <v>0</v>
       </c>
       <c r="Y50" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z50" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AA50" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AB50" s="1">
         <v>1</v>
       </c>
       <c r="AC50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:29" x14ac:dyDescent="0.25">
@@ -5981,46 +6530,46 @@
         <v>2</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D51" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E51" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F51" s="1">
         <v>-1</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H51" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" s="1">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K51" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N51" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O51" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q51" s="1">
         <v>1</v>
@@ -6029,22 +6578,22 @@
         <v>-1</v>
       </c>
       <c r="S51" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="T51" s="1" t="b">
         <v>1</v>
       </c>
       <c r="U51" s="1">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="V51" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W51" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X51" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y51" s="1">
         <v>0</v>
@@ -6070,10 +6619,10 @@
         <v>2</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D52" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E52" s="1">
         <v>7</v>
@@ -6082,58 +6631,58 @@
         <v>-1</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H52" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" s="1">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M52" s="1">
         <v>0</v>
       </c>
       <c r="N52" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O52" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q52" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R52" s="1">
         <v>-1</v>
       </c>
       <c r="S52" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="T52" s="1" t="b">
         <v>1</v>
       </c>
       <c r="U52" s="1">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="V52" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W52" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X52" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y52" s="1">
         <v>0</v>
@@ -6159,43 +6708,43 @@
         <v>2</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="D53" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E53" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F53" s="1">
         <v>-1</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H53" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53" s="1">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="J53" s="3" t="s">
         <v>4</v>
       </c>
       <c r="K53" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L53" s="1">
         <v>0</v>
       </c>
       <c r="M53" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N53" s="3" t="s">
         <v>5</v>
       </c>
       <c r="O53" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P53" s="1">
         <v>1</v>
@@ -6207,37 +6756,37 @@
         <v>-1</v>
       </c>
       <c r="S53" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="T53" s="1" t="b">
         <v>1</v>
       </c>
       <c r="U53" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="V53" s="3" t="s">
         <v>4</v>
       </c>
       <c r="W53" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X53" s="1">
         <v>0</v>
       </c>
       <c r="Y53" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z53" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AA53" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB53" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC53" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:29" x14ac:dyDescent="0.25">
@@ -6248,37 +6797,37 @@
         <v>2</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="D54" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E54" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F54" s="1">
         <v>-1</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H54" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54" s="1">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>4</v>
       </c>
       <c r="K54" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L54" s="1">
         <v>0</v>
       </c>
       <c r="M54" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N54" s="3" t="s">
         <v>5</v>
@@ -6296,34 +6845,34 @@
         <v>-1</v>
       </c>
       <c r="S54" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="T54" s="1" t="b">
         <v>1</v>
       </c>
       <c r="U54" s="1">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="V54" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W54" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X54" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y54" s="1">
         <v>0</v>
       </c>
       <c r="Z54" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AA54" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AB54" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC54" s="1">
         <v>1</v>
@@ -6340,34 +6889,34 @@
         <v>66</v>
       </c>
       <c r="D55" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E55" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F55" s="1">
         <v>-1</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H55" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" s="1">
-        <v>11</v>
+        <v>101</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K55" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L55" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M55" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N55" s="3" t="s">
         <v>5</v>
@@ -6385,34 +6934,34 @@
         <v>-1</v>
       </c>
       <c r="S55" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="T55" s="1" t="b">
         <v>1</v>
       </c>
       <c r="U55" s="1">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="V55" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W55" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X55" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y55" s="1">
         <v>0</v>
       </c>
       <c r="Z55" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AA55" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AB55" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC55" s="1">
         <v>1</v>
@@ -6426,13 +6975,13 @@
         <v>2</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D56" s="1">
         <v>5</v>
       </c>
       <c r="E56" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F56" s="1">
         <v>-1</v>
@@ -6462,7 +7011,7 @@
         <v>5</v>
       </c>
       <c r="O56" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P56" s="1">
         <v>1</v>
@@ -6486,25 +7035,25 @@
         <v>4</v>
       </c>
       <c r="W56" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X56" s="1">
         <v>0</v>
       </c>
       <c r="Y56" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z56" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AA56" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AB56" s="1">
         <v>1</v>
       </c>
       <c r="AC56" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:29" x14ac:dyDescent="0.25">
@@ -6515,10 +7064,10 @@
         <v>2</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D57" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E57" s="1">
         <v>7</v>
@@ -6527,22 +7076,22 @@
         <v>-1</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H57" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57" s="1">
-        <v>11</v>
+        <v>101</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M57" s="1">
         <v>0</v>
@@ -6551,34 +7100,34 @@
         <v>5</v>
       </c>
       <c r="O57" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P57" s="1">
         <v>1</v>
       </c>
       <c r="Q57" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R57" s="1">
         <v>-1</v>
       </c>
       <c r="S57" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="T57" s="1" t="b">
         <v>1</v>
       </c>
       <c r="U57" s="1">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="V57" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W57" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X57" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y57" s="1">
         <v>0</v>
@@ -6604,13 +7153,13 @@
         <v>2</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D58" s="1">
         <v>5</v>
       </c>
       <c r="E58" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F58" s="1">
         <v>-1</v>
@@ -6640,7 +7189,7 @@
         <v>5</v>
       </c>
       <c r="O58" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P58" s="1">
         <v>1</v>
@@ -6652,37 +7201,37 @@
         <v>-1</v>
       </c>
       <c r="S58" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="T58" s="1" t="b">
         <v>1</v>
       </c>
       <c r="U58" s="1">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="V58" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W58" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X58" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z58" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AA58" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AB58" s="1">
         <v>1</v>
       </c>
       <c r="AC58" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:29" x14ac:dyDescent="0.25">
@@ -6693,70 +7242,70 @@
         <v>2</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="D59" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E59" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F59" s="1">
         <v>-1</v>
       </c>
       <c r="G59" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H59" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I59" s="1">
+        <v>1</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K59" s="1">
+        <v>3</v>
+      </c>
+      <c r="L59" s="1">
+        <v>0</v>
+      </c>
+      <c r="M59" s="1">
+        <v>1</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O59" s="1">
+        <v>4</v>
+      </c>
+      <c r="P59" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q59" s="1">
+        <v>1</v>
+      </c>
+      <c r="R59" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S59" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H59" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I59" s="1">
+      <c r="T59" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="U59" s="1">
         <v>101</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K59" s="1">
-        <v>0</v>
-      </c>
-      <c r="L59" s="1">
-        <v>0</v>
-      </c>
-      <c r="M59" s="1">
-        <v>0</v>
-      </c>
-      <c r="N59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O59" s="1">
-        <v>4</v>
-      </c>
-      <c r="P59" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q59" s="1">
-        <v>1</v>
-      </c>
-      <c r="R59" s="1">
-        <v>-1</v>
-      </c>
-      <c r="S59" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="T59" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="U59" s="1">
-        <v>111</v>
-      </c>
       <c r="V59" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W59" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X59" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y59" s="1">
         <v>0</v>
@@ -6765,7 +7314,7 @@
         <v>5</v>
       </c>
       <c r="AA59" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AB59" s="1">
         <v>1</v>
@@ -6782,70 +7331,70 @@
         <v>2</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="D60" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E60" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F60" s="1">
         <v>-1</v>
       </c>
       <c r="G60" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H60" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I60" s="1">
+        <v>1</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K60" s="1">
+        <v>3</v>
+      </c>
+      <c r="L60" s="1">
+        <v>0</v>
+      </c>
+      <c r="M60" s="1">
+        <v>1</v>
+      </c>
+      <c r="N60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O60" s="1">
+        <v>5</v>
+      </c>
+      <c r="P60" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q60" s="1">
+        <v>1</v>
+      </c>
+      <c r="R60" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S60" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H60" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I60" s="1">
+      <c r="T60" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="U60" s="1">
         <v>101</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K60" s="1">
-        <v>0</v>
-      </c>
-      <c r="L60" s="1">
-        <v>0</v>
-      </c>
-      <c r="M60" s="1">
-        <v>0</v>
-      </c>
-      <c r="N60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O60" s="1">
-        <v>4</v>
-      </c>
-      <c r="P60" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q60" s="1">
-        <v>1</v>
-      </c>
-      <c r="R60" s="1">
-        <v>-1</v>
-      </c>
-      <c r="S60" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="T60" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="U60" s="1">
-        <v>111</v>
-      </c>
       <c r="V60" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W60" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X60" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y60" s="1">
         <v>0</v>
@@ -6871,43 +7420,43 @@
         <v>2</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D61" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E61" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F61" s="1">
         <v>-1</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H61" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" s="1">
-        <v>101</v>
+        <v>11</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K61" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L61" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M61" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N61" s="3" t="s">
         <v>5</v>
       </c>
       <c r="O61" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P61" s="1">
         <v>1</v>
@@ -6931,25 +7480,25 @@
         <v>4</v>
       </c>
       <c r="W61" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X61" s="1">
         <v>0</v>
       </c>
       <c r="Y61" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z61" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AA61" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AB61" s="1">
         <v>1</v>
       </c>
       <c r="AC61" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:29" x14ac:dyDescent="0.25">
@@ -6960,10 +7509,10 @@
         <v>2</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D62" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E62" s="1">
         <v>6</v>
@@ -6972,73 +7521,73 @@
         <v>-1</v>
       </c>
       <c r="G62" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H62" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" s="1">
+        <v>11</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K62" s="1">
+        <v>1</v>
+      </c>
+      <c r="L62" s="1">
+        <v>1</v>
+      </c>
+      <c r="M62" s="1">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O62" s="1">
+        <v>2</v>
+      </c>
+      <c r="P62" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q62" s="1">
+        <v>0</v>
+      </c>
+      <c r="R62" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S62" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H62" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I62" s="1">
+      <c r="T62" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="U62" s="1">
         <v>101</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K62" s="1">
-        <v>0</v>
-      </c>
-      <c r="L62" s="1">
-        <v>0</v>
-      </c>
-      <c r="M62" s="1">
-        <v>0</v>
-      </c>
-      <c r="N62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O62" s="1">
-        <v>4</v>
-      </c>
-      <c r="P62" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q62" s="1">
-        <v>1</v>
-      </c>
-      <c r="R62" s="1">
-        <v>-1</v>
-      </c>
-      <c r="S62" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="T62" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="U62" s="1">
-        <v>111</v>
-      </c>
       <c r="V62" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W62" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X62" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z62" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AA62" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AB62" s="1">
         <v>1</v>
       </c>
       <c r="AC62" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:29" x14ac:dyDescent="0.25">
@@ -7049,34 +7598,34 @@
         <v>2</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D63" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E63" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F63" s="1">
         <v>-1</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H63" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" s="1">
-        <v>101</v>
+        <v>11</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K63" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L63" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M63" s="1">
         <v>0</v>
@@ -7085,13 +7634,13 @@
         <v>5</v>
       </c>
       <c r="O63" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P63" s="1">
         <v>1</v>
       </c>
       <c r="Q63" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R63" s="1">
         <v>-1</v>
@@ -7109,7 +7658,7 @@
         <v>5</v>
       </c>
       <c r="W63" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X63" s="1">
         <v>1</v>
@@ -7121,7 +7670,7 @@
         <v>5</v>
       </c>
       <c r="AA63" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AB63" s="1">
         <v>1</v>
@@ -7138,7 +7687,7 @@
         <v>2</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="D64" s="1">
         <v>3</v>
@@ -7150,58 +7699,58 @@
         <v>-1</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H64" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I64" s="1">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K64" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L64" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M64" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N64" s="3" t="s">
         <v>5</v>
       </c>
       <c r="O64" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P64" s="1">
         <v>1</v>
       </c>
       <c r="Q64" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R64" s="1">
         <v>-1</v>
       </c>
       <c r="S64" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="T64" s="1" t="b">
         <v>1</v>
       </c>
       <c r="U64" s="1">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="V64" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W64" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X64" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y64" s="1">
         <v>0</v>
@@ -7210,7 +7759,7 @@
         <v>5</v>
       </c>
       <c r="AA64" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AB64" s="1">
         <v>1</v>
@@ -7227,49 +7776,49 @@
         <v>2</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="D65" s="1">
         <v>3</v>
       </c>
       <c r="E65" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F65" s="1">
         <v>-1</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H65" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I65" s="1">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="J65" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K65" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M65" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N65" s="3" t="s">
         <v>5</v>
       </c>
       <c r="O65" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P65" s="1">
         <v>1</v>
       </c>
       <c r="Q65" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R65" s="1">
         <v>-1</v>
@@ -7287,25 +7836,25 @@
         <v>4</v>
       </c>
       <c r="W65" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X65" s="1">
         <v>0</v>
       </c>
       <c r="Y65" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z65" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AA65" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AB65" s="1">
         <v>1</v>
       </c>
       <c r="AC65" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:29" x14ac:dyDescent="0.25">
@@ -7316,7 +7865,7 @@
         <v>2</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D66" s="1">
         <v>3</v>
@@ -7340,46 +7889,46 @@
         <v>5</v>
       </c>
       <c r="K66" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L66" s="1">
         <v>1</v>
       </c>
       <c r="M66" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N66" s="3" t="s">
         <v>5</v>
       </c>
       <c r="O66" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P66" s="1">
         <v>1</v>
       </c>
       <c r="Q66" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R66" s="1">
         <v>-1</v>
       </c>
       <c r="S66" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="T66" s="1" t="b">
         <v>1</v>
       </c>
       <c r="U66" s="1">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="V66" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W66" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X66" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y66" s="1">
         <v>0</v>
@@ -7411,7 +7960,7 @@
         <v>3</v>
       </c>
       <c r="E67" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F67" s="1">
         <v>-1</v>
@@ -7453,22 +8002,22 @@
         <v>-1</v>
       </c>
       <c r="S67" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="T67" s="1" t="b">
         <v>1</v>
       </c>
       <c r="U67" s="1">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="V67" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W67" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X67" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y67" s="1">
         <v>0</v>
@@ -7494,10 +8043,10 @@
         <v>2</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D68" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E68" s="1">
         <v>7</v>
@@ -7506,31 +8055,31 @@
         <v>-1</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H68" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" s="1">
-        <v>101</v>
+        <v>1</v>
       </c>
       <c r="J68" s="3" t="s">
         <v>4</v>
       </c>
       <c r="K68" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L68" s="1">
         <v>0</v>
       </c>
       <c r="M68" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N68" s="3" t="s">
         <v>5</v>
       </c>
       <c r="O68" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P68" s="1">
         <v>1</v>
@@ -7542,31 +8091,31 @@
         <v>-1</v>
       </c>
       <c r="S68" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="T68" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U68" s="1">
-        <v>101</v>
+        <v>11</v>
       </c>
       <c r="V68" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W68" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X68" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y68" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z68" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AA68" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB68" s="1">
         <v>1</v>
@@ -7583,10 +8132,10 @@
         <v>2</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="D69" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E69" s="1">
         <v>7</v>
@@ -7595,25 +8144,25 @@
         <v>-1</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H69" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" s="1">
-        <v>101</v>
+        <v>1</v>
       </c>
       <c r="J69" s="3" t="s">
         <v>4</v>
       </c>
       <c r="K69" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L69" s="1">
         <v>0</v>
       </c>
       <c r="M69" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N69" s="3" t="s">
         <v>5</v>
@@ -7631,13 +8180,13 @@
         <v>-1</v>
       </c>
       <c r="S69" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="T69" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U69" s="1">
-        <v>111</v>
+        <v>11</v>
       </c>
       <c r="V69" s="3" t="s">
         <v>5</v>
@@ -7655,13 +8204,13 @@
         <v>5</v>
       </c>
       <c r="AA69" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AB69" s="1">
         <v>1</v>
       </c>
       <c r="AC69" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:29" x14ac:dyDescent="0.25">
@@ -7672,34 +8221,34 @@
         <v>2</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D70" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E70" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F70" s="1">
         <v>-1</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H70" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" s="1">
-        <v>101</v>
+        <v>11</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K70" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L70" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M70" s="1">
         <v>0</v>
@@ -7708,37 +8257,37 @@
         <v>5</v>
       </c>
       <c r="O70" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P70" s="1">
         <v>1</v>
       </c>
       <c r="Q70" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R70" s="1">
         <v>-1</v>
       </c>
       <c r="S70" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="T70" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U70" s="1">
-        <v>111</v>
+        <v>11</v>
       </c>
       <c r="V70" s="3" t="s">
         <v>5</v>
       </c>
       <c r="W70" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="X70" s="1">
         <v>1</v>
       </c>
       <c r="Y70" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z70" s="3" t="s">
         <v>5</v>
@@ -7761,13 +8310,13 @@
         <v>2</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D71" s="1">
         <v>5</v>
       </c>
       <c r="E71" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F71" s="1">
         <v>-1</v>
@@ -7785,61 +8334,61 @@
         <v>4</v>
       </c>
       <c r="K71" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L71" s="1">
         <v>0</v>
       </c>
       <c r="M71" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N71" s="3" t="s">
         <v>5</v>
       </c>
       <c r="O71" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P71" s="1">
         <v>1</v>
       </c>
       <c r="Q71" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R71" s="1">
         <v>-1</v>
       </c>
       <c r="S71" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="T71" s="1" t="b">
         <v>1</v>
       </c>
       <c r="U71" s="1">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="V71" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W71" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X71" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y71" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z71" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AA71" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AB71" s="1">
         <v>1</v>
       </c>
       <c r="AC71" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:29" x14ac:dyDescent="0.25">
@@ -7850,13 +8399,13 @@
         <v>2</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D72" s="1">
         <v>5</v>
       </c>
       <c r="E72" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F72" s="1">
         <v>-1</v>
@@ -7874,25 +8423,25 @@
         <v>4</v>
       </c>
       <c r="K72" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L72" s="1">
         <v>0</v>
       </c>
       <c r="M72" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N72" s="3" t="s">
         <v>5</v>
       </c>
       <c r="O72" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P72" s="1">
         <v>1</v>
       </c>
       <c r="Q72" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R72" s="1">
         <v>-1</v>
@@ -7910,7 +8459,7 @@
         <v>5</v>
       </c>
       <c r="W72" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X72" s="1">
         <v>1</v>
@@ -7922,7 +8471,7 @@
         <v>5</v>
       </c>
       <c r="AA72" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AB72" s="1">
         <v>1</v>
@@ -7939,7 +8488,7 @@
         <v>2</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D73" s="1">
         <v>5</v>
@@ -7963,61 +8512,61 @@
         <v>4</v>
       </c>
       <c r="K73" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L73" s="1">
         <v>0</v>
       </c>
       <c r="M73" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N73" s="3" t="s">
         <v>5</v>
       </c>
       <c r="O73" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P73" s="1">
         <v>1</v>
       </c>
       <c r="Q73" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R73" s="1">
         <v>-1</v>
       </c>
       <c r="S73" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="T73" s="1" t="b">
         <v>1</v>
       </c>
       <c r="U73" s="1">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="V73" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W73" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X73" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y73" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z73" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AA73" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AB73" s="1">
         <v>1</v>
       </c>
       <c r="AC73" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:29" x14ac:dyDescent="0.25">
@@ -8028,10 +8577,10 @@
         <v>2</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D74" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E74" s="1">
         <v>7</v>
@@ -8040,13 +8589,13 @@
         <v>-1</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H74" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74" s="1">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="J74" s="3" t="s">
         <v>4</v>
@@ -8064,34 +8613,34 @@
         <v>5</v>
       </c>
       <c r="O74" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P74" s="1">
         <v>1</v>
       </c>
       <c r="Q74" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R74" s="1">
         <v>-1</v>
       </c>
       <c r="S74" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="T74" s="1" t="b">
         <v>1</v>
       </c>
       <c r="U74" s="1">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="V74" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W74" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X74" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y74" s="1">
         <v>0</v>
@@ -8100,7 +8649,7 @@
         <v>5</v>
       </c>
       <c r="AA74" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AB74" s="1">
         <v>1</v>
@@ -8117,25 +8666,25 @@
         <v>2</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="D75" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E75" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F75" s="1">
         <v>-1</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H75" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75" s="1">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="J75" s="3" t="s">
         <v>4</v>
@@ -8153,34 +8702,34 @@
         <v>5</v>
       </c>
       <c r="O75" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P75" s="1">
         <v>1</v>
       </c>
       <c r="Q75" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R75" s="1">
         <v>-1</v>
       </c>
       <c r="S75" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="T75" s="1" t="b">
         <v>1</v>
       </c>
       <c r="U75" s="1">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="V75" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W75" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X75" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y75" s="1">
         <v>0</v>
@@ -8206,7 +8755,7 @@
         <v>2</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="D76" s="1">
         <v>3</v>
@@ -8218,22 +8767,22 @@
         <v>-1</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H76" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I76" s="1">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K76" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L76" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M76" s="1">
         <v>1</v>
@@ -8242,7 +8791,7 @@
         <v>5</v>
       </c>
       <c r="O76" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P76" s="1">
         <v>1</v>
@@ -8266,25 +8815,25 @@
         <v>4</v>
       </c>
       <c r="W76" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X76" s="1">
         <v>0</v>
       </c>
       <c r="Y76" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z76" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AA76" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AB76" s="1">
         <v>1</v>
       </c>
       <c r="AC76" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:29" x14ac:dyDescent="0.25">
@@ -8295,7 +8844,7 @@
         <v>2</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="D77" s="1">
         <v>3</v>
@@ -8307,37 +8856,37 @@
         <v>-1</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H77" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I77" s="1">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K77" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L77" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M77" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N77" s="3" t="s">
         <v>5</v>
       </c>
       <c r="O77" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P77" s="1">
         <v>1</v>
       </c>
       <c r="Q77" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R77" s="1">
         <v>-1</v>
@@ -8384,13 +8933,13 @@
         <v>2</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="D78" s="1">
         <v>3</v>
       </c>
       <c r="E78" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F78" s="1">
         <v>-1</v>
@@ -8408,61 +8957,61 @@
         <v>5</v>
       </c>
       <c r="K78" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L78" s="1">
         <v>1</v>
       </c>
       <c r="M78" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N78" s="3" t="s">
         <v>5</v>
       </c>
       <c r="O78" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P78" s="1">
         <v>1</v>
       </c>
       <c r="Q78" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R78" s="1">
         <v>-1</v>
       </c>
       <c r="S78" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="T78" s="1" t="b">
         <v>1</v>
       </c>
       <c r="U78" s="1">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="V78" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W78" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X78" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y78" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z78" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AA78" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AB78" s="1">
         <v>1</v>
       </c>
       <c r="AC78" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:29" x14ac:dyDescent="0.25">
@@ -8473,10 +9022,10 @@
         <v>2</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D79" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E79" s="1">
         <v>6</v>
@@ -8485,13 +9034,13 @@
         <v>-1</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H79" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79" s="1">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="J79" s="3" t="s">
         <v>5</v>
@@ -8509,13 +9058,13 @@
         <v>5</v>
       </c>
       <c r="O79" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P79" s="1">
         <v>1</v>
       </c>
       <c r="Q79" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R79" s="1">
         <v>-1</v>
@@ -8562,37 +9111,37 @@
         <v>2</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D80" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E80" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F80" s="1">
         <v>-1</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H80" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I80" s="1">
-        <v>11</v>
+        <v>101</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K80" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L80" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M80" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N80" s="3" t="s">
         <v>5</v>
@@ -8610,37 +9159,37 @@
         <v>-1</v>
       </c>
       <c r="S80" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="T80" s="1" t="b">
         <v>1</v>
       </c>
       <c r="U80" s="1">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="V80" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W80" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X80" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y80" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z80" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AA80" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AB80" s="1">
         <v>1</v>
       </c>
       <c r="AC80" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:29" x14ac:dyDescent="0.25">
@@ -8651,10 +9200,10 @@
         <v>2</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D81" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E81" s="1">
         <v>6</v>
@@ -8663,13 +9212,13 @@
         <v>-1</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H81" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81" s="1">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>5</v>
@@ -8687,13 +9236,13 @@
         <v>5</v>
       </c>
       <c r="O81" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P81" s="1">
         <v>1</v>
       </c>
       <c r="Q81" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R81" s="1">
         <v>-1</v>
@@ -8740,25 +9289,25 @@
         <v>2</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D82" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E82" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F82" s="1">
         <v>-1</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H82" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I82" s="1">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="J82" s="3" t="s">
         <v>5</v>
@@ -8776,13 +9325,13 @@
         <v>5</v>
       </c>
       <c r="O82" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P82" s="1">
         <v>1</v>
       </c>
       <c r="Q82" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R82" s="1">
         <v>-1</v>
@@ -8829,13 +9378,13 @@
         <v>2</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="D83" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E83" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F83" s="1">
         <v>-1</v>
@@ -8877,13 +9426,13 @@
         <v>-1</v>
       </c>
       <c r="S83" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T83" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U83" s="1">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="V83" s="3" t="s">
         <v>5</v>
@@ -8901,13 +9450,13 @@
         <v>5</v>
       </c>
       <c r="AA83" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AB83" s="1">
         <v>1</v>
       </c>
       <c r="AC83" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:29" x14ac:dyDescent="0.25">
@@ -8918,10 +9467,10 @@
         <v>2</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D84" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E84" s="1">
         <v>7</v>
@@ -8966,13 +9515,13 @@
         <v>-1</v>
       </c>
       <c r="S84" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T84" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U84" s="1">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="V84" s="3" t="s">
         <v>5</v>
@@ -8990,13 +9539,13 @@
         <v>5</v>
       </c>
       <c r="AA84" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AB84" s="1">
         <v>1</v>
       </c>
       <c r="AC84" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:29" x14ac:dyDescent="0.25">
@@ -9007,13 +9556,13 @@
         <v>2</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D85" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E85" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F85" s="1">
         <v>-1</v>
@@ -9031,55 +9580,55 @@
         <v>5</v>
       </c>
       <c r="K85" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L85" s="1">
         <v>1</v>
       </c>
       <c r="M85" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N85" s="3" t="s">
         <v>5</v>
       </c>
       <c r="O85" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="P85" s="1">
         <v>1</v>
       </c>
       <c r="Q85" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R85" s="1">
         <v>-1</v>
       </c>
       <c r="S85" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T85" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U85" s="1">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="V85" s="3" t="s">
         <v>5</v>
       </c>
       <c r="W85" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="X85" s="1">
         <v>1</v>
       </c>
       <c r="Y85" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z85" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AA85" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AB85" s="1">
         <v>1</v>
@@ -9096,13 +9645,13 @@
         <v>2</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D86" s="1">
         <v>5</v>
       </c>
       <c r="E86" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F86" s="1">
         <v>-1</v>
@@ -9132,7 +9681,7 @@
         <v>5</v>
       </c>
       <c r="O86" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P86" s="1">
         <v>1</v>
@@ -9168,7 +9717,7 @@
         <v>5</v>
       </c>
       <c r="AA86" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AB86" s="1">
         <v>1</v>
@@ -9185,49 +9734,49 @@
         <v>2</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D87" s="1">
         <v>5</v>
       </c>
       <c r="E87" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F87" s="1">
         <v>-1</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H87" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I87" s="1">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="J87" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K87" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L87" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M87" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N87" s="3" t="s">
         <v>5</v>
       </c>
       <c r="O87" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P87" s="1">
         <v>1</v>
       </c>
       <c r="Q87" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R87" s="1">
         <v>-1</v>
@@ -9245,7 +9794,7 @@
         <v>5</v>
       </c>
       <c r="W87" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X87" s="1">
         <v>1</v>
@@ -9257,7 +9806,7 @@
         <v>5</v>
       </c>
       <c r="AA87" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AB87" s="1">
         <v>1</v>
@@ -9274,7 +9823,7 @@
         <v>2</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D88" s="1">
         <v>5</v>
@@ -9286,73 +9835,73 @@
         <v>-1</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H88" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I88" s="1">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="J88" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K88" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L88" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M88" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N88" s="3" t="s">
         <v>5</v>
       </c>
       <c r="O88" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P88" s="1">
         <v>1</v>
       </c>
       <c r="Q88" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R88" s="1">
         <v>-1</v>
       </c>
       <c r="S88" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="T88" s="1" t="b">
         <v>1</v>
       </c>
       <c r="U88" s="1">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="V88" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W88" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X88" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y88" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z88" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AA88" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AB88" s="1">
         <v>1</v>
       </c>
       <c r="AC88" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:29" x14ac:dyDescent="0.25">
@@ -9363,10 +9912,10 @@
         <v>2</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="D89" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E89" s="1">
         <v>7</v>
@@ -9375,13 +9924,13 @@
         <v>-1</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H89" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" s="1">
-        <v>101</v>
+        <v>1</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>4</v>
@@ -9399,13 +9948,13 @@
         <v>5</v>
       </c>
       <c r="O89" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P89" s="1">
         <v>1</v>
       </c>
       <c r="Q89" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R89" s="1">
         <v>-1</v>
@@ -9423,7 +9972,7 @@
         <v>5</v>
       </c>
       <c r="W89" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X89" s="1">
         <v>1</v>
@@ -9435,7 +9984,7 @@
         <v>5</v>
       </c>
       <c r="AA89" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AB89" s="1">
         <v>1</v>
@@ -9452,25 +10001,25 @@
         <v>2</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="D90" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E90" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F90" s="1">
         <v>-1</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H90" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" s="1">
-        <v>101</v>
+        <v>1</v>
       </c>
       <c r="J90" s="3" t="s">
         <v>4</v>
@@ -9488,13 +10037,13 @@
         <v>5</v>
       </c>
       <c r="O90" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P90" s="1">
         <v>1</v>
       </c>
       <c r="Q90" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R90" s="1">
         <v>-1</v>
@@ -9512,7 +10061,7 @@
         <v>5</v>
       </c>
       <c r="W90" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X90" s="1">
         <v>1</v>
@@ -9541,7 +10090,7 @@
         <v>2</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="D91" s="1">
         <v>3</v>
@@ -9553,22 +10102,22 @@
         <v>-1</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H91" s="1" t="b">
         <v>0</v>
       </c>
       <c r="I91" s="1">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="J91" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K91" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L91" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M91" s="1">
         <v>1</v>
@@ -9577,7 +10126,7 @@
         <v>5</v>
       </c>
       <c r="O91" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P91" s="1">
         <v>1</v>
@@ -9589,37 +10138,37 @@
         <v>-1</v>
       </c>
       <c r="S91" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="T91" s="1" t="b">
         <v>1</v>
       </c>
       <c r="U91" s="1">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="V91" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W91" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X91" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y91" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z91" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AA91" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AB91" s="1">
         <v>1</v>
       </c>
       <c r="AC91" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:29" x14ac:dyDescent="0.25">
@@ -9630,10 +10179,10 @@
         <v>2</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D92" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E92" s="1">
         <v>6</v>
@@ -9642,13 +10191,13 @@
         <v>-1</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H92" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I92" s="1">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="J92" s="3" t="s">
         <v>4</v>
@@ -9666,49 +10215,49 @@
         <v>5</v>
       </c>
       <c r="O92" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P92" s="1">
         <v>1</v>
       </c>
       <c r="Q92" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R92" s="1">
         <v>-1</v>
       </c>
       <c r="S92" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="T92" s="1" t="b">
         <v>1</v>
       </c>
       <c r="U92" s="1">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="V92" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W92" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X92" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y92" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z92" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AA92" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AB92" s="1">
         <v>1</v>
       </c>
       <c r="AC92" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:29" x14ac:dyDescent="0.25">
@@ -9719,34 +10268,34 @@
         <v>2</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D93" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E93" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F93" s="1">
         <v>-1</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H93" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I93" s="1">
-        <v>11</v>
+        <v>101</v>
       </c>
       <c r="J93" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K93" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L93" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M93" s="1">
         <v>1</v>
@@ -9755,49 +10304,49 @@
         <v>5</v>
       </c>
       <c r="O93" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P93" s="1">
         <v>1</v>
       </c>
       <c r="Q93" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R93" s="1">
         <v>-1</v>
       </c>
       <c r="S93" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="T93" s="1" t="b">
         <v>1</v>
       </c>
       <c r="U93" s="1">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="V93" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W93" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X93" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y93" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z93" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AA93" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AB93" s="1">
         <v>1</v>
       </c>
       <c r="AC93" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:29" x14ac:dyDescent="0.25">
@@ -9808,10 +10357,10 @@
         <v>2</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="D94" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E94" s="1">
         <v>6</v>
@@ -9820,25 +10369,25 @@
         <v>-1</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H94" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" s="1">
-        <v>111</v>
+        <v>1</v>
       </c>
       <c r="J94" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K94" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L94" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M94" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N94" s="3" t="s">
         <v>5</v>
@@ -9856,37 +10405,37 @@
         <v>-1</v>
       </c>
       <c r="S94" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="T94" s="1" t="b">
         <v>1</v>
       </c>
       <c r="U94" s="1">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="V94" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W94" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X94" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y94" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z94" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AA94" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AB94" s="1">
         <v>1</v>
       </c>
       <c r="AC94" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:29" x14ac:dyDescent="0.25">
@@ -9897,85 +10446,85 @@
         <v>2</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="D95" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E95" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F95" s="1">
         <v>-1</v>
       </c>
       <c r="G95" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H95" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I95" s="1">
+        <v>1</v>
+      </c>
+      <c r="J95" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K95" s="1">
+        <v>3</v>
+      </c>
+      <c r="L95" s="1">
+        <v>0</v>
+      </c>
+      <c r="M95" s="1">
+        <v>1</v>
+      </c>
+      <c r="N95" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O95" s="1">
+        <v>5</v>
+      </c>
+      <c r="P95" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q95" s="1">
+        <v>1</v>
+      </c>
+      <c r="R95" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S95" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H95" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I95" s="1">
+      <c r="T95" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="U95" s="1">
         <v>101</v>
       </c>
-      <c r="J95" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K95" s="1">
-        <v>3</v>
-      </c>
-      <c r="L95" s="1">
-        <v>0</v>
-      </c>
-      <c r="M95" s="1">
-        <v>1</v>
-      </c>
-      <c r="N95" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O95" s="1">
-        <v>2</v>
-      </c>
-      <c r="P95" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q95" s="1">
-        <v>0</v>
-      </c>
-      <c r="R95" s="1">
-        <v>-1</v>
-      </c>
-      <c r="S95" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="T95" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="U95" s="1">
-        <v>111</v>
-      </c>
       <c r="V95" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W95" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X95" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y95" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z95" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AA95" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AB95" s="1">
         <v>1</v>
       </c>
       <c r="AC95" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:29" x14ac:dyDescent="0.25">
@@ -9986,43 +10535,43 @@
         <v>2</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="D96" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E96" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F96" s="1">
         <v>-1</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H96" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" s="1">
-        <v>111</v>
+        <v>11</v>
       </c>
       <c r="J96" s="3" t="s">
         <v>5</v>
       </c>
       <c r="K96" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L96" s="1">
         <v>1</v>
       </c>
       <c r="M96" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N96" s="3" t="s">
         <v>5</v>
       </c>
       <c r="O96" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P96" s="1">
         <v>1</v>
@@ -10034,37 +10583,37 @@
         <v>-1</v>
       </c>
       <c r="S96" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="T96" s="1" t="b">
         <v>1</v>
       </c>
       <c r="U96" s="1">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="V96" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W96" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X96" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y96" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z96" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AA96" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AB96" s="1">
         <v>1</v>
       </c>
       <c r="AC96" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:29" x14ac:dyDescent="0.25">
@@ -10075,13 +10624,13 @@
         <v>2</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D97" s="1">
         <v>5</v>
       </c>
       <c r="E97" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F97" s="1">
         <v>-1</v>
@@ -10099,7 +10648,7 @@
         <v>5</v>
       </c>
       <c r="K97" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L97" s="1">
         <v>1</v>
@@ -10164,7 +10713,7 @@
         <v>2</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D98" s="1">
         <v>3</v>
@@ -10224,7 +10773,7 @@
         <v>5</v>
       </c>
       <c r="W98" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X98" s="1">
         <v>1</v>
@@ -10253,7 +10802,7 @@
         <v>2</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D99" s="1">
         <v>3</v>
@@ -10313,7 +10862,7 @@
         <v>5</v>
       </c>
       <c r="W99" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X99" s="1">
         <v>1</v>
@@ -10342,7 +10891,7 @@
         <v>2</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D100" s="1">
         <v>3</v>
@@ -10402,7 +10951,7 @@
         <v>5</v>
       </c>
       <c r="W100" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X100" s="1">
         <v>1</v>
@@ -10431,10 +10980,10 @@
         <v>2</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="D101" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E101" s="1">
         <v>7</v>
@@ -10443,13 +10992,13 @@
         <v>-1</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H101" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" s="1">
-        <v>101</v>
+        <v>1</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>4</v>
@@ -10467,13 +11016,13 @@
         <v>5</v>
       </c>
       <c r="O101" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P101" s="1">
         <v>1</v>
       </c>
       <c r="Q101" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R101" s="1">
         <v>-1</v>
@@ -10491,7 +11040,7 @@
         <v>5</v>
       </c>
       <c r="W101" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X101" s="1">
         <v>1</v>
@@ -10520,37 +11069,37 @@
         <v>2</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="D102" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E102" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F102" s="1">
         <v>-1</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H102" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" s="1">
-        <v>111</v>
+        <v>1</v>
       </c>
       <c r="J102" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K102" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L102" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M102" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N102" s="3" t="s">
         <v>5</v>
@@ -10592,7 +11141,7 @@
         <v>5</v>
       </c>
       <c r="AA102" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AB102" s="1">
         <v>1</v>
@@ -10609,10 +11158,10 @@
         <v>2</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D103" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E103" s="1">
         <v>6</v>
@@ -10621,25 +11170,25 @@
         <v>-1</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H103" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" s="1">
-        <v>111</v>
+        <v>11</v>
       </c>
       <c r="J103" s="3" t="s">
         <v>5</v>
       </c>
       <c r="K103" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L103" s="1">
         <v>1</v>
       </c>
       <c r="M103" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N103" s="3" t="s">
         <v>5</v>
@@ -10698,13 +11247,13 @@
         <v>2</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="D104" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E104" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F104" s="1">
         <v>-1</v>
@@ -10746,25 +11295,25 @@
         <v>-1</v>
       </c>
       <c r="S104" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="T104" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U104" s="1">
-        <v>111</v>
+        <v>1</v>
       </c>
       <c r="V104" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W104" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X104" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y104" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z104" s="3" t="s">
         <v>5</v>
@@ -10787,10 +11336,10 @@
         <v>2</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D105" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E105" s="1">
         <v>6</v>
@@ -10823,7 +11372,7 @@
         <v>5</v>
       </c>
       <c r="O105" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P105" s="1">
         <v>1</v>
@@ -10835,25 +11384,25 @@
         <v>-1</v>
       </c>
       <c r="S105" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="T105" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U105" s="1">
-        <v>111</v>
+        <v>11</v>
       </c>
       <c r="V105" s="3" t="s">
         <v>5</v>
       </c>
       <c r="W105" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="X105" s="1">
         <v>1</v>
       </c>
       <c r="Y105" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z105" s="3" t="s">
         <v>5</v>
@@ -10876,10 +11425,10 @@
         <v>2</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="D106" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E106" s="1">
         <v>6</v>
@@ -10888,61 +11437,61 @@
         <v>-1</v>
       </c>
       <c r="G106" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H106" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="I106" s="1">
+        <v>1</v>
+      </c>
+      <c r="J106" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K106" s="1">
+        <v>3</v>
+      </c>
+      <c r="L106" s="1">
+        <v>0</v>
+      </c>
+      <c r="M106" s="1">
+        <v>1</v>
+      </c>
+      <c r="N106" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O106" s="1">
+        <v>5</v>
+      </c>
+      <c r="P106" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q106" s="1">
+        <v>1</v>
+      </c>
+      <c r="R106" s="1">
+        <v>-1</v>
+      </c>
+      <c r="S106" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H106" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I106" s="1">
+      <c r="T106" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="U106" s="1">
         <v>11</v>
       </c>
-      <c r="J106" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K106" s="1">
-        <v>4</v>
-      </c>
-      <c r="L106" s="1">
-        <v>1</v>
-      </c>
-      <c r="M106" s="1">
-        <v>1</v>
-      </c>
-      <c r="N106" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O106" s="1">
-        <v>5</v>
-      </c>
-      <c r="P106" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q106" s="1">
-        <v>1</v>
-      </c>
-      <c r="R106" s="1">
-        <v>-1</v>
-      </c>
-      <c r="S106" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="T106" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="U106" s="1">
-        <v>111</v>
-      </c>
       <c r="V106" s="3" t="s">
         <v>5</v>
       </c>
       <c r="W106" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="X106" s="1">
         <v>1</v>
       </c>
       <c r="Y106" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z106" s="3" t="s">
         <v>5</v>
@@ -10954,1346 +11503,12 @@
         <v>1</v>
       </c>
       <c r="AC106" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A107" s="2">
-        <v>105</v>
-      </c>
-      <c r="B107" s="1">
-        <v>2</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D107" s="1">
-        <v>5</v>
-      </c>
-      <c r="E107" s="1">
-        <v>6</v>
-      </c>
-      <c r="F107" s="1">
-        <v>-1</v>
-      </c>
-      <c r="G107" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H107" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I107" s="1">
-        <v>101</v>
-      </c>
-      <c r="J107" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K107" s="1">
-        <v>3</v>
-      </c>
-      <c r="L107" s="1">
-        <v>0</v>
-      </c>
-      <c r="M107" s="1">
-        <v>1</v>
-      </c>
-      <c r="N107" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O107" s="1">
-        <v>2</v>
-      </c>
-      <c r="P107" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q107" s="1">
-        <v>0</v>
-      </c>
-      <c r="R107" s="1">
-        <v>-1</v>
-      </c>
-      <c r="S107" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="T107" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="U107" s="1">
-        <v>111</v>
-      </c>
-      <c r="V107" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W107" s="1">
-        <v>2</v>
-      </c>
-      <c r="X107" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y107" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z107" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA107" s="1">
-        <v>4</v>
-      </c>
-      <c r="AB107" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC107" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A108" s="2">
-        <v>106</v>
-      </c>
-      <c r="B108" s="1">
-        <v>2</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D108" s="1">
-        <v>5</v>
-      </c>
-      <c r="E108" s="1">
-        <v>6</v>
-      </c>
-      <c r="F108" s="1">
-        <v>-1</v>
-      </c>
-      <c r="G108" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H108" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I108" s="1">
-        <v>101</v>
-      </c>
-      <c r="J108" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K108" s="1">
-        <v>3</v>
-      </c>
-      <c r="L108" s="1">
-        <v>0</v>
-      </c>
-      <c r="M108" s="1">
-        <v>1</v>
-      </c>
-      <c r="N108" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O108" s="1">
-        <v>2</v>
-      </c>
-      <c r="P108" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q108" s="1">
-        <v>0</v>
-      </c>
-      <c r="R108" s="1">
-        <v>-1</v>
-      </c>
-      <c r="S108" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="T108" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="U108" s="1">
-        <v>111</v>
-      </c>
-      <c r="V108" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W108" s="1">
-        <v>2</v>
-      </c>
-      <c r="X108" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y108" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z108" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA108" s="1">
-        <v>5</v>
-      </c>
-      <c r="AB108" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC108" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A109" s="2">
-        <v>107</v>
-      </c>
-      <c r="B109" s="1">
-        <v>2</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D109" s="1">
-        <v>3</v>
-      </c>
-      <c r="E109" s="1">
-        <v>6</v>
-      </c>
-      <c r="F109" s="1">
-        <v>-1</v>
-      </c>
-      <c r="G109" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H109" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I109" s="1">
-        <v>1</v>
-      </c>
-      <c r="J109" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K109" s="1">
-        <v>3</v>
-      </c>
-      <c r="L109" s="1">
-        <v>0</v>
-      </c>
-      <c r="M109" s="1">
-        <v>1</v>
-      </c>
-      <c r="N109" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O109" s="1">
-        <v>4</v>
-      </c>
-      <c r="P109" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q109" s="1">
-        <v>1</v>
-      </c>
-      <c r="R109" s="1">
-        <v>-1</v>
-      </c>
-      <c r="S109" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="T109" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="U109" s="1">
-        <v>101</v>
-      </c>
-      <c r="V109" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W109" s="1">
-        <v>3</v>
-      </c>
-      <c r="X109" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y109" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z109" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA109" s="1">
-        <v>2</v>
-      </c>
-      <c r="AB109" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC109" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A110" s="2">
-        <v>108</v>
-      </c>
-      <c r="B110" s="1">
-        <v>2</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D110" s="1">
-        <v>3</v>
-      </c>
-      <c r="E110" s="1">
-        <v>6</v>
-      </c>
-      <c r="F110" s="1">
-        <v>-1</v>
-      </c>
-      <c r="G110" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H110" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I110" s="1">
-        <v>1</v>
-      </c>
-      <c r="J110" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K110" s="1">
-        <v>3</v>
-      </c>
-      <c r="L110" s="1">
-        <v>0</v>
-      </c>
-      <c r="M110" s="1">
-        <v>1</v>
-      </c>
-      <c r="N110" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O110" s="1">
-        <v>5</v>
-      </c>
-      <c r="P110" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q110" s="1">
-        <v>1</v>
-      </c>
-      <c r="R110" s="1">
-        <v>-1</v>
-      </c>
-      <c r="S110" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="T110" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="U110" s="1">
-        <v>101</v>
-      </c>
-      <c r="V110" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W110" s="1">
-        <v>3</v>
-      </c>
-      <c r="X110" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y110" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z110" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA110" s="1">
-        <v>2</v>
-      </c>
-      <c r="AB110" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC110" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A111" s="2">
-        <v>109</v>
-      </c>
-      <c r="B111" s="1">
-        <v>2</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D111" s="1">
-        <v>3</v>
-      </c>
-      <c r="E111" s="1">
-        <v>7</v>
-      </c>
-      <c r="F111" s="1">
-        <v>-1</v>
-      </c>
-      <c r="G111" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H111" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I111" s="1">
-        <v>11</v>
-      </c>
-      <c r="J111" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K111" s="1">
-        <v>4</v>
-      </c>
-      <c r="L111" s="1">
-        <v>1</v>
-      </c>
-      <c r="M111" s="1">
-        <v>1</v>
-      </c>
-      <c r="N111" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O111" s="1">
-        <v>5</v>
-      </c>
-      <c r="P111" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q111" s="1">
-        <v>1</v>
-      </c>
-      <c r="R111" s="1">
-        <v>-1</v>
-      </c>
-      <c r="S111" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="T111" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="U111" s="1">
-        <v>101</v>
-      </c>
-      <c r="V111" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W111" s="1">
-        <v>3</v>
-      </c>
-      <c r="X111" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y111" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z111" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA111" s="1">
-        <v>2</v>
-      </c>
-      <c r="AB111" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC111" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A112" s="2">
-        <v>110</v>
-      </c>
-      <c r="B112" s="1">
-        <v>2</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D112" s="1">
-        <v>5</v>
-      </c>
-      <c r="E112" s="1">
-        <v>6</v>
-      </c>
-      <c r="F112" s="1">
-        <v>-1</v>
-      </c>
-      <c r="G112" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H112" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I112" s="1">
-        <v>111</v>
-      </c>
-      <c r="J112" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K112" s="1">
-        <v>2</v>
-      </c>
-      <c r="L112" s="1">
-        <v>1</v>
-      </c>
-      <c r="M112" s="1">
-        <v>0</v>
-      </c>
-      <c r="N112" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O112" s="1">
-        <v>4</v>
-      </c>
-      <c r="P112" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q112" s="1">
-        <v>1</v>
-      </c>
-      <c r="R112" s="1">
-        <v>-1</v>
-      </c>
-      <c r="S112" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="T112" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="U112" s="1">
-        <v>111</v>
-      </c>
-      <c r="V112" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W112" s="1">
-        <v>2</v>
-      </c>
-      <c r="X112" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y112" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z112" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA112" s="1">
-        <v>5</v>
-      </c>
-      <c r="AB112" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC112" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A113" s="2">
-        <v>111</v>
-      </c>
-      <c r="B113" s="1">
-        <v>2</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D113" s="1">
-        <v>3</v>
-      </c>
-      <c r="E113" s="1">
-        <v>6</v>
-      </c>
-      <c r="F113" s="1">
-        <v>-1</v>
-      </c>
-      <c r="G113" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H113" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I113" s="1">
-        <v>1</v>
-      </c>
-      <c r="J113" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K113" s="1">
-        <v>3</v>
-      </c>
-      <c r="L113" s="1">
-        <v>0</v>
-      </c>
-      <c r="M113" s="1">
-        <v>1</v>
-      </c>
-      <c r="N113" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O113" s="1">
-        <v>4</v>
-      </c>
-      <c r="P113" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q113" s="1">
-        <v>1</v>
-      </c>
-      <c r="R113" s="1">
-        <v>-1</v>
-      </c>
-      <c r="S113" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="T113" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="U113" s="1">
-        <v>111</v>
-      </c>
-      <c r="V113" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W113" s="1">
-        <v>2</v>
-      </c>
-      <c r="X113" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y113" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z113" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA113" s="1">
-        <v>4</v>
-      </c>
-      <c r="AB113" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC113" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A114" s="2">
-        <v>112</v>
-      </c>
-      <c r="B114" s="1">
-        <v>2</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D114" s="1">
-        <v>3</v>
-      </c>
-      <c r="E114" s="1">
-        <v>7</v>
-      </c>
-      <c r="F114" s="1">
-        <v>-1</v>
-      </c>
-      <c r="G114" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H114" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I114" s="1">
-        <v>1</v>
-      </c>
-      <c r="J114" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K114" s="1">
-        <v>3</v>
-      </c>
-      <c r="L114" s="1">
-        <v>0</v>
-      </c>
-      <c r="M114" s="1">
-        <v>1</v>
-      </c>
-      <c r="N114" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O114" s="1">
-        <v>5</v>
-      </c>
-      <c r="P114" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q114" s="1">
-        <v>1</v>
-      </c>
-      <c r="R114" s="1">
-        <v>-1</v>
-      </c>
-      <c r="S114" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="T114" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="U114" s="1">
-        <v>111</v>
-      </c>
-      <c r="V114" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W114" s="1">
-        <v>2</v>
-      </c>
-      <c r="X114" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y114" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z114" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA114" s="1">
-        <v>4</v>
-      </c>
-      <c r="AB114" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC114" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A115" s="2">
-        <v>113</v>
-      </c>
-      <c r="B115" s="1">
-        <v>2</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D115" s="1">
-        <v>3</v>
-      </c>
-      <c r="E115" s="1">
-        <v>6</v>
-      </c>
-      <c r="F115" s="1">
-        <v>-1</v>
-      </c>
-      <c r="G115" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H115" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I115" s="1">
-        <v>11</v>
-      </c>
-      <c r="J115" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K115" s="1">
-        <v>4</v>
-      </c>
-      <c r="L115" s="1">
-        <v>1</v>
-      </c>
-      <c r="M115" s="1">
-        <v>1</v>
-      </c>
-      <c r="N115" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O115" s="1">
-        <v>5</v>
-      </c>
-      <c r="P115" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q115" s="1">
-        <v>1</v>
-      </c>
-      <c r="R115" s="1">
-        <v>-1</v>
-      </c>
-      <c r="S115" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="T115" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="U115" s="1">
-        <v>111</v>
-      </c>
-      <c r="V115" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W115" s="1">
-        <v>2</v>
-      </c>
-      <c r="X115" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y115" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z115" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA115" s="1">
-        <v>4</v>
-      </c>
-      <c r="AB115" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC115" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A116" s="2">
-        <v>114</v>
-      </c>
-      <c r="B116" s="1">
-        <v>2</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D116" s="1">
-        <v>3</v>
-      </c>
-      <c r="E116" s="1">
-        <v>7</v>
-      </c>
-      <c r="F116" s="1">
-        <v>-1</v>
-      </c>
-      <c r="G116" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H116" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I116" s="1">
-        <v>1</v>
-      </c>
-      <c r="J116" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K116" s="1">
-        <v>3</v>
-      </c>
-      <c r="L116" s="1">
-        <v>0</v>
-      </c>
-      <c r="M116" s="1">
-        <v>1</v>
-      </c>
-      <c r="N116" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O116" s="1">
-        <v>4</v>
-      </c>
-      <c r="P116" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q116" s="1">
-        <v>1</v>
-      </c>
-      <c r="R116" s="1">
-        <v>-1</v>
-      </c>
-      <c r="S116" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="T116" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="U116" s="1">
-        <v>111</v>
-      </c>
-      <c r="V116" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W116" s="1">
-        <v>2</v>
-      </c>
-      <c r="X116" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y116" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z116" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA116" s="1">
-        <v>5</v>
-      </c>
-      <c r="AB116" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC116" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A117" s="2">
-        <v>115</v>
-      </c>
-      <c r="B117" s="1">
-        <v>2</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D117" s="1">
-        <v>3</v>
-      </c>
-      <c r="E117" s="1">
-        <v>6</v>
-      </c>
-      <c r="F117" s="1">
-        <v>-1</v>
-      </c>
-      <c r="G117" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H117" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I117" s="1">
-        <v>1</v>
-      </c>
-      <c r="J117" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K117" s="1">
-        <v>3</v>
-      </c>
-      <c r="L117" s="1">
-        <v>0</v>
-      </c>
-      <c r="M117" s="1">
-        <v>1</v>
-      </c>
-      <c r="N117" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O117" s="1">
-        <v>5</v>
-      </c>
-      <c r="P117" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q117" s="1">
-        <v>1</v>
-      </c>
-      <c r="R117" s="1">
-        <v>-1</v>
-      </c>
-      <c r="S117" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="T117" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="U117" s="1">
-        <v>111</v>
-      </c>
-      <c r="V117" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W117" s="1">
-        <v>2</v>
-      </c>
-      <c r="X117" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y117" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z117" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA117" s="1">
-        <v>5</v>
-      </c>
-      <c r="AB117" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC117" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A118" s="2">
-        <v>116</v>
-      </c>
-      <c r="B118" s="1">
-        <v>2</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D118" s="1">
-        <v>3</v>
-      </c>
-      <c r="E118" s="1">
-        <v>6</v>
-      </c>
-      <c r="F118" s="1">
-        <v>-1</v>
-      </c>
-      <c r="G118" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H118" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I118" s="1">
-        <v>11</v>
-      </c>
-      <c r="J118" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K118" s="1">
-        <v>4</v>
-      </c>
-      <c r="L118" s="1">
-        <v>1</v>
-      </c>
-      <c r="M118" s="1">
-        <v>1</v>
-      </c>
-      <c r="N118" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O118" s="1">
-        <v>5</v>
-      </c>
-      <c r="P118" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q118" s="1">
-        <v>1</v>
-      </c>
-      <c r="R118" s="1">
-        <v>-1</v>
-      </c>
-      <c r="S118" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="T118" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="U118" s="1">
-        <v>111</v>
-      </c>
-      <c r="V118" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W118" s="1">
-        <v>2</v>
-      </c>
-      <c r="X118" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y118" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z118" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA118" s="1">
-        <v>5</v>
-      </c>
-      <c r="AB118" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC118" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A119" s="2">
-        <v>117</v>
-      </c>
-      <c r="B119" s="1">
-        <v>2</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D119" s="1">
-        <v>2</v>
-      </c>
-      <c r="E119" s="1">
-        <v>6</v>
-      </c>
-      <c r="F119" s="1">
-        <v>-1</v>
-      </c>
-      <c r="G119" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H119" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I119" s="1">
-        <v>1</v>
-      </c>
-      <c r="J119" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K119" s="1">
-        <v>3</v>
-      </c>
-      <c r="L119" s="1">
-        <v>0</v>
-      </c>
-      <c r="M119" s="1">
-        <v>1</v>
-      </c>
-      <c r="N119" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O119" s="1">
-        <v>4</v>
-      </c>
-      <c r="P119" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q119" s="1">
-        <v>1</v>
-      </c>
-      <c r="R119" s="1">
-        <v>-1</v>
-      </c>
-      <c r="S119" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T119" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="U119" s="1">
-        <v>1</v>
-      </c>
-      <c r="V119" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W119" s="1">
-        <v>3</v>
-      </c>
-      <c r="X119" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y119" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z119" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA119" s="1">
-        <v>5</v>
-      </c>
-      <c r="AB119" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC119" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A120" s="2">
-        <v>118</v>
-      </c>
-      <c r="B120" s="1">
-        <v>2</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D120" s="1">
-        <v>2</v>
-      </c>
-      <c r="E120" s="1">
-        <v>6</v>
-      </c>
-      <c r="F120" s="1">
-        <v>-1</v>
-      </c>
-      <c r="G120" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H120" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I120" s="1">
-        <v>1</v>
-      </c>
-      <c r="J120" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K120" s="1">
-        <v>3</v>
-      </c>
-      <c r="L120" s="1">
-        <v>0</v>
-      </c>
-      <c r="M120" s="1">
-        <v>1</v>
-      </c>
-      <c r="N120" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O120" s="1">
-        <v>4</v>
-      </c>
-      <c r="P120" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q120" s="1">
-        <v>1</v>
-      </c>
-      <c r="R120" s="1">
-        <v>-1</v>
-      </c>
-      <c r="S120" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="T120" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="U120" s="1">
-        <v>11</v>
-      </c>
-      <c r="V120" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W120" s="1">
-        <v>4</v>
-      </c>
-      <c r="X120" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y120" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z120" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA120" s="1">
-        <v>5</v>
-      </c>
-      <c r="AB120" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC120" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A121" s="2">
-        <v>119</v>
-      </c>
-      <c r="B121" s="1">
-        <v>2</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D121" s="1">
-        <v>2</v>
-      </c>
-      <c r="E121" s="1">
-        <v>6</v>
-      </c>
-      <c r="F121" s="1">
-        <v>-1</v>
-      </c>
-      <c r="G121" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H121" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I121" s="1">
-        <v>1</v>
-      </c>
-      <c r="J121" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K121" s="1">
-        <v>3</v>
-      </c>
-      <c r="L121" s="1">
-        <v>0</v>
-      </c>
-      <c r="M121" s="1">
-        <v>1</v>
-      </c>
-      <c r="N121" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O121" s="1">
-        <v>5</v>
-      </c>
-      <c r="P121" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q121" s="1">
-        <v>1</v>
-      </c>
-      <c r="R121" s="1">
-        <v>-1</v>
-      </c>
-      <c r="S121" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="T121" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="U121" s="1">
-        <v>11</v>
-      </c>
-      <c r="V121" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W121" s="1">
-        <v>4</v>
-      </c>
-      <c r="X121" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y121" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z121" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA121" s="1">
-        <v>5</v>
-      </c>
-      <c r="AB121" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC121" s="1">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:AC1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="4" r:id="rId1"/>
 </worksheet>
 </file>